--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="loginTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>0002</t>
-  </si>
-  <si>
-    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -379,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,16 +394,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="AutomationP@ssword123"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -418,7 +415,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
